--- a/xlsx/新尼德兰_intext.xlsx
+++ b/xlsx/新尼德兰_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>新尼德兰</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>荷蘭共和國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_新尼德兰</t>
+    <t>荷兰共和国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_新尼德兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E5%9C%8B%E6%97%97</t>
   </si>
   <si>
-    <t>荷蘭國旗</t>
+    <t>荷兰国旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>荷蘭語</t>
+    <t>荷兰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E4%BD%93</t>
@@ -83,15 +83,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E8%AF%AD</t>
   </si>
   <si>
-    <t>荷兰语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
   </si>
   <si>
@@ -137,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E5%93%88%E5%BE%B7%E9%81%9C</t>
   </si>
   <si>
-    <t>亨利·哈德遜</t>
+    <t>亨利·哈德逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%B3%95</t>
@@ -899,7 +893,7 @@
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -925,10 +919,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>9</v>
@@ -954,10 +948,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>4</v>
@@ -983,10 +977,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -1012,10 +1006,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1041,10 +1035,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1070,10 +1064,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1099,10 +1093,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1128,10 +1122,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1157,10 +1151,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1186,10 +1180,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1215,10 +1209,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1244,10 +1238,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>11</v>
@@ -1273,10 +1267,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1302,10 +1296,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1331,10 +1325,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1360,10 +1354,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1389,10 +1383,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1418,10 +1412,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -1447,10 +1441,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1476,10 +1470,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
